--- a/Running projects/Gul Ahmed Energy Limited/BOQ/Running Bill No 1.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/BOQ/Running Bill No 1.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Gul Ahmed Energy Limited\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED59E6A-916B-4F41-B39C-15E7F6B9F2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B0E96-FCAB-41EA-A3F2-474534B9F8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
     <sheet name="HVAC" sheetId="8" r:id="rId2"/>
     <sheet name="Fire" sheetId="6" r:id="rId3"/>
     <sheet name="Plumbing" sheetId="7" r:id="rId4"/>
+    <sheet name="Vos" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Vos!$A$1:$C$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Fire!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Plumbing!$6:$7</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="262">
   <si>
     <t>Job</t>
   </si>
@@ -1316,6 +1318,42 @@
   <si>
     <t>03 Nos Vairation amount</t>
   </si>
+  <si>
+    <t>Summary of Variation Orders</t>
+  </si>
+  <si>
+    <t>Sr #</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DESCRIPTION</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOUNT </t>
+  </si>
+  <si>
+    <t>Variation of Spare parts</t>
+  </si>
+  <si>
+    <t>Variation of copper pipes</t>
+  </si>
+  <si>
+    <t>Awaiting for approval -- In this Our OH profit 10% included in th eVO as per nadeem bhai</t>
+  </si>
+  <si>
+    <t>Variation of Additional Cassettte type units</t>
+  </si>
+  <si>
+    <t>Total amount Rs.</t>
+  </si>
 </sst>
 </file>
 
@@ -1327,7 +1365,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,8 +1534,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1510,8 +1607,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1634,14 +1737,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2031,69 +2166,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -2105,10 +2177,146 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{AE633979-BB4F-4FE9-8DA2-0C1509A15775}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{39447839-E885-4B8B-9E82-D558A71BF2AB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0657692F-9EFC-428D-88C2-C265DBEA529C}"/>
   </cellStyles>
@@ -2129,14 +2337,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>86846</xdr:colOff>
+      <xdr:colOff>524996</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>86834</xdr:rowOff>
     </xdr:to>
@@ -2161,12 +2369,78 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696700" y="0"/>
+          <a:off x="12268200" y="0"/>
           <a:ext cx="8030696" cy="7944959"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>113550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB278812-BDC6-4567-8BE2-561E5F0851E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="491490" y="7490460"/>
+          <a:ext cx="708660" cy="690765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2485,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D90355-A162-4E48-8A87-46B23CA1073A}">
   <dimension ref="A4:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2512,18 +2786,18 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2532,12 +2806,12 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -2568,13 +2842,13 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
@@ -2611,7 +2885,7 @@
       <c r="A17" s="24">
         <v>1</v>
       </c>
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="136" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="26">
@@ -2631,7 +2905,7 @@
       <c r="A18" s="24">
         <v>2</v>
       </c>
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="136" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="26">
@@ -2649,7 +2923,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
-      <c r="B19" s="157"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="24"/>
       <c r="D19" s="22"/>
       <c r="E19" s="26"/>
@@ -2658,7 +2932,7 @@
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="136" t="s">
         <v>252</v>
       </c>
       <c r="C20" s="26">
@@ -2727,7 +3001,7 @@
   <dimension ref="A1:O185"/>
   <sheetViews>
     <sheetView topLeftCell="A142" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2750,41 +3024,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -2810,69 +3084,69 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="139" t="s">
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="148" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="141"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="150"/>
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:15" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="145" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="148" t="s">
+      <c r="F6" s="145" t="s">
         <v>212</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="142" t="s">
+      <c r="I6" s="152"/>
+      <c r="J6" s="151" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="143"/>
-      <c r="L6" s="138" t="s">
+      <c r="K6" s="152"/>
+      <c r="L6" s="144" t="s">
         <v>24</v>
       </c>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="138"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="46" t="s">
         <v>217</v>
       </c>
@@ -2885,7 +3159,7 @@
       <c r="K7" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="138"/>
+      <c r="L7" s="144"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
     </row>
@@ -2907,7 +3181,7 @@
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
     </row>
-    <row r="9" spans="1:15" s="65" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
         <v>1</v>
       </c>
@@ -3087,7 +3361,7 @@
       <c r="N12" s="45"/>
       <c r="O12" s="45"/>
     </row>
-    <row r="13" spans="1:15" s="65" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>5</v>
       </c>
@@ -3132,7 +3406,7 @@
       <c r="N13" s="45"/>
       <c r="O13" s="45"/>
     </row>
-    <row r="14" spans="1:15" s="65" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="65" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <v>6</v>
       </c>
@@ -3267,7 +3541,7 @@
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
     </row>
-    <row r="17" spans="1:15" s="65" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="65" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="63" t="s">
         <v>90</v>
@@ -3397,7 +3671,7 @@
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
     </row>
-    <row r="21" spans="1:15" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="65" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <v>1</v>
       </c>
@@ -3518,7 +3792,7 @@
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
     </row>
-    <row r="24" spans="1:15" s="65" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="65" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>59</v>
       </c>
@@ -3691,7 +3965,7 @@
       <c r="N28" s="45"/>
       <c r="O28" s="45"/>
     </row>
-    <row r="29" spans="1:15" s="76" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="76" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A29" s="62">
         <v>1</v>
       </c>
@@ -4003,7 +4277,7 @@
       <c r="N36" s="45"/>
       <c r="O36" s="45"/>
     </row>
-    <row r="37" spans="1:15" s="76" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="76" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="77">
         <v>5</v>
       </c>
@@ -4733,7 +5007,7 @@
       <c r="N54" s="45"/>
       <c r="O54" s="45"/>
     </row>
-    <row r="55" spans="1:15" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="76" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
       <c r="B55" s="71" t="s">
         <v>127</v>
@@ -5117,7 +5391,7 @@
       <c r="N64" s="91"/>
       <c r="O64" s="91"/>
     </row>
-    <row r="65" spans="1:15" s="76" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="76" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A65" s="77">
         <v>1</v>
       </c>
@@ -5259,7 +5533,7 @@
       <c r="N68" s="45"/>
       <c r="O68" s="45"/>
     </row>
-    <row r="69" spans="1:15" s="76" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="76" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A69" s="77">
         <v>1</v>
       </c>
@@ -5722,7 +5996,7 @@
       <c r="N79" s="45"/>
       <c r="O79" s="45"/>
     </row>
-    <row r="80" spans="1:15" s="65" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="65" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A80" s="62">
         <v>2</v>
       </c>
@@ -6073,7 +6347,7 @@
       <c r="N88" s="45"/>
       <c r="O88" s="45"/>
     </row>
-    <row r="89" spans="1:15" s="76" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="76" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A89" s="77">
         <v>1</v>
       </c>
@@ -6153,7 +6427,7 @@
       <c r="N90" s="45"/>
       <c r="O90" s="45"/>
     </row>
-    <row r="91" spans="1:15" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="76" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="78"/>
       <c r="B91" s="98" t="s">
         <v>142</v>
@@ -6186,7 +6460,7 @@
       <c r="N91" s="45"/>
       <c r="O91" s="45"/>
     </row>
-    <row r="92" spans="1:15" s="76" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="76" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A92" s="77">
         <v>2</v>
       </c>
@@ -6328,7 +6602,7 @@
       <c r="N95" s="45"/>
       <c r="O95" s="45"/>
     </row>
-    <row r="96" spans="1:15" s="76" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="76" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="77">
         <v>1</v>
       </c>
@@ -6720,7 +6994,7 @@
       <c r="N105" s="45"/>
       <c r="O105" s="45"/>
     </row>
-    <row r="106" spans="1:15" s="76" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="76" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A106" s="77">
         <v>2</v>
       </c>
@@ -6796,7 +7070,7 @@
       <c r="N107" s="45"/>
       <c r="O107" s="45"/>
     </row>
-    <row r="108" spans="1:15" s="76" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" s="76" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A108" s="77">
         <v>3</v>
       </c>
@@ -7016,7 +7290,7 @@
       <c r="N113" s="45"/>
       <c r="O113" s="45"/>
     </row>
-    <row r="114" spans="1:15" s="76" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="76" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A114" s="85">
         <v>1</v>
       </c>
@@ -7107,7 +7381,7 @@
         <f t="shared" si="7"/>
         <v>225250</v>
       </c>
-      <c r="H116" s="155">
+      <c r="H116" s="134">
         <v>1</v>
       </c>
       <c r="I116" s="64">
@@ -7152,7 +7426,7 @@
         <f t="shared" si="7"/>
         <v>174250</v>
       </c>
-      <c r="H117" s="155">
+      <c r="H117" s="134">
         <v>1</v>
       </c>
       <c r="I117" s="64">
@@ -7197,7 +7471,7 @@
         <f t="shared" si="7"/>
         <v>172550</v>
       </c>
-      <c r="H118" s="155">
+      <c r="H118" s="134">
         <v>1</v>
       </c>
       <c r="I118" s="64">
@@ -7242,7 +7516,7 @@
         <f t="shared" si="7"/>
         <v>164900</v>
       </c>
-      <c r="H119" s="155">
+      <c r="H119" s="134">
         <v>1</v>
       </c>
       <c r="I119" s="64">
@@ -7363,7 +7637,7 @@
       <c r="N122" s="91"/>
       <c r="O122" s="91"/>
     </row>
-    <row r="123" spans="1:15" s="76" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" s="76" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A123" s="85">
         <v>1</v>
       </c>
@@ -7909,7 +8183,7 @@
       <c r="N136" s="45"/>
       <c r="O136" s="45"/>
     </row>
-    <row r="137" spans="1:15" s="76" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" s="76" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" s="78"/>
       <c r="B137" s="98" t="s">
         <v>179</v>
@@ -7975,7 +8249,7 @@
       <c r="N138" s="91"/>
       <c r="O138" s="91"/>
     </row>
-    <row r="139" spans="1:15" s="76" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" s="76" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A139" s="77">
         <v>1</v>
       </c>
@@ -8033,7 +8307,7 @@
         <f t="shared" si="12"/>
         <v>295800</v>
       </c>
-      <c r="H140" s="155">
+      <c r="H140" s="134">
         <v>1</v>
       </c>
       <c r="I140" s="64">
@@ -8201,7 +8475,7 @@
       <c r="N144" s="45"/>
       <c r="O144" s="45"/>
     </row>
-    <row r="145" spans="1:15" s="76" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" s="76" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="77"/>
       <c r="B145" s="98" t="s">
         <v>187</v>
@@ -8404,22 +8678,22 @@
       <c r="B151" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="C151" s="144" t="s">
+      <c r="C151" s="140" t="s">
         <v>211</v>
       </c>
-      <c r="D151" s="145"/>
-      <c r="E151" s="145"/>
-      <c r="F151" s="145"/>
-      <c r="G151" s="145"/>
-      <c r="H151" s="145"/>
-      <c r="I151" s="145"/>
-      <c r="J151" s="145"/>
-      <c r="K151" s="145"/>
-      <c r="L151" s="146"/>
+      <c r="D151" s="141"/>
+      <c r="E151" s="141"/>
+      <c r="F151" s="141"/>
+      <c r="G151" s="141"/>
+      <c r="H151" s="141"/>
+      <c r="I151" s="141"/>
+      <c r="J151" s="141"/>
+      <c r="K151" s="141"/>
+      <c r="L151" s="142"/>
       <c r="N151" s="45"/>
       <c r="O151" s="45"/>
     </row>
-    <row r="152" spans="1:15" s="76" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" s="76" customFormat="1" ht="252" x14ac:dyDescent="0.25">
       <c r="A152" s="77">
         <v>1</v>
       </c>
@@ -8458,7 +8732,7 @@
       <c r="N152" s="45"/>
       <c r="O152" s="45"/>
     </row>
-    <row r="153" spans="1:15" s="76" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" s="76" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A153" s="77">
         <v>2</v>
       </c>
@@ -8497,7 +8771,7 @@
       <c r="N153" s="45"/>
       <c r="O153" s="45"/>
     </row>
-    <row r="154" spans="1:15" s="76" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" s="76" customFormat="1" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A154" s="77">
         <v>3</v>
       </c>
@@ -8536,7 +8810,7 @@
       <c r="N154" s="45"/>
       <c r="O154" s="45"/>
     </row>
-    <row r="155" spans="1:15" s="76" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" s="76" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A155" s="77">
         <v>4</v>
       </c>
@@ -8575,7 +8849,7 @@
       <c r="N155" s="45"/>
       <c r="O155" s="45"/>
     </row>
-    <row r="156" spans="1:15" s="76" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" s="76" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A156" s="77">
         <v>5</v>
       </c>
@@ -8647,7 +8921,7 @@
       <c r="N157" s="45"/>
       <c r="O157" s="45"/>
     </row>
-    <row r="158" spans="1:15" s="76" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" s="76" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A158" s="77">
         <v>6</v>
       </c>
@@ -8686,7 +8960,7 @@
       <c r="N158" s="45"/>
       <c r="O158" s="45"/>
     </row>
-    <row r="159" spans="1:15" s="76" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" s="76" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A159" s="77">
         <v>7</v>
       </c>
@@ -8725,7 +8999,7 @@
       <c r="N159" s="45"/>
       <c r="O159" s="45"/>
     </row>
-    <row r="160" spans="1:15" s="76" customFormat="1" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" s="76" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A160" s="77">
         <v>8</v>
       </c>
@@ -8764,7 +9038,7 @@
       <c r="N160" s="45"/>
       <c r="O160" s="45"/>
     </row>
-    <row r="161" spans="1:15" s="76" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" s="76" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A161" s="77">
         <v>9</v>
       </c>
@@ -8999,6 +9273,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="C151:L151"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="L6:L7"/>
@@ -9008,13 +9289,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9026,8 +9300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDA9F7C-6C0E-4BCE-AA96-3FA9BF586A17}">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9048,41 +9322,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="147"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -9108,65 +9382,65 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="150" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="155"/>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="145" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="148" t="s">
+      <c r="F6" s="145" t="s">
         <v>212</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="142" t="s">
+      <c r="I6" s="152"/>
+      <c r="J6" s="151" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="143"/>
-      <c r="L6" s="138" t="s">
+      <c r="K6" s="152"/>
+      <c r="L6" s="144" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="138"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="46" t="s">
         <v>217</v>
       </c>
@@ -9179,7 +9453,7 @@
       <c r="K7" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="138"/>
+      <c r="L7" s="144"/>
     </row>
     <row r="8" spans="1:12" s="52" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
@@ -9873,7 +10147,7 @@
         <f t="shared" si="0"/>
         <v>391000</v>
       </c>
-      <c r="H28" s="156">
+      <c r="H28" s="135">
         <v>1</v>
       </c>
       <c r="I28" s="64">
@@ -12275,7 +12549,7 @@
   <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12296,41 +12570,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
       <c r="D3" s="42"/>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -12356,65 +12630,65 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="150" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="152"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="155"/>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="145" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="148" t="s">
+      <c r="F6" s="145" t="s">
         <v>212</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="143"/>
-      <c r="J6" s="142" t="s">
+      <c r="I6" s="152"/>
+      <c r="J6" s="151" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="143"/>
-      <c r="L6" s="138" t="s">
+      <c r="K6" s="152"/>
+      <c r="L6" s="144" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="138"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="46" t="s">
         <v>217</v>
       </c>
@@ -12427,7 +12701,7 @@
       <c r="K7" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="138"/>
+      <c r="L7" s="144"/>
     </row>
     <row r="8" spans="1:12" s="60" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
@@ -14036,4 +14310,140 @@
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665BC7C7-123A-4873-A208-C306997F5526}">
+  <dimension ref="A7:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="158" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="158" customWidth="1"/>
+    <col min="3" max="3" width="21" style="158" customWidth="1"/>
+    <col min="4" max="16384" width="30.5703125" style="158"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="159">
+        <f ca="1">TODAY()</f>
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="160"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="161" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="163"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+    </row>
+    <row r="14" spans="1:3" s="167" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="164" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="165" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="166" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="168"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
+    </row>
+    <row r="16" spans="1:3" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="171">
+        <v>1</v>
+      </c>
+      <c r="B16" s="172" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="173">
+        <v>2512279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="171">
+        <v>2</v>
+      </c>
+      <c r="B17" s="172" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="173">
+        <v>1794085</v>
+      </c>
+      <c r="D17" s="175" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+    </row>
+    <row r="18" spans="1:8" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="171">
+        <v>3</v>
+      </c>
+      <c r="B18" s="172" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="173">
+        <v>324500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="177"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="170"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="179"/>
+      <c r="B20" s="180" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="181">
+        <f>SUM(C16:C19)</f>
+        <v>4630864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="182"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="183"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="A23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Running projects/Gul Ahmed Energy Limited/BOQ/Running Bill No 1.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/BOQ/Running Bill No 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Gul Ahmed Energy Limited\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B0E96-FCAB-41EA-A3F2-474534B9F8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC99C17-078D-4226-AE1E-BD219B05B3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Plumbing!$6:$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2177,79 +2177,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2287,31 +2218,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2786,18 +2786,18 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
-      <c r="B6" s="138"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2806,12 +2806,12 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -2842,13 +2842,13 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C74F93-5B98-495A-B036-F0E8766535E3}">
   <dimension ref="A1:O185"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3024,41 +3024,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
     </row>
     <row r="3" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -3084,69 +3084,69 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="148" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="150"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="165"/>
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:15" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="151" t="s">
+      <c r="H6" s="166" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="152"/>
-      <c r="J6" s="151" t="s">
+      <c r="I6" s="167"/>
+      <c r="J6" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="152"/>
-      <c r="L6" s="144" t="s">
+      <c r="K6" s="167"/>
+      <c r="L6" s="162" t="s">
         <v>24</v>
       </c>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="144"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="46" t="s">
         <v>217</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="K7" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="144"/>
+      <c r="L7" s="162"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
     </row>
@@ -8678,18 +8678,18 @@
       <c r="B151" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="C151" s="140" t="s">
+      <c r="C151" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="D151" s="141"/>
-      <c r="E151" s="141"/>
-      <c r="F151" s="141"/>
-      <c r="G151" s="141"/>
-      <c r="H151" s="141"/>
-      <c r="I151" s="141"/>
-      <c r="J151" s="141"/>
-      <c r="K151" s="141"/>
-      <c r="L151" s="142"/>
+      <c r="D151" s="169"/>
+      <c r="E151" s="169"/>
+      <c r="F151" s="169"/>
+      <c r="G151" s="169"/>
+      <c r="H151" s="169"/>
+      <c r="I151" s="169"/>
+      <c r="J151" s="169"/>
+      <c r="K151" s="169"/>
+      <c r="L151" s="170"/>
       <c r="N151" s="45"/>
       <c r="O151" s="45"/>
     </row>
@@ -9273,13 +9273,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="C151:L151"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="L6:L7"/>
@@ -9289,6 +9282,13 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9322,41 +9322,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="143"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -9382,65 +9382,65 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="153" t="s">
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="174" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="155"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="176"/>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="151" t="s">
+      <c r="H6" s="166" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="152"/>
-      <c r="J6" s="151" t="s">
+      <c r="I6" s="167"/>
+      <c r="J6" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="152"/>
-      <c r="L6" s="144" t="s">
+      <c r="K6" s="167"/>
+      <c r="L6" s="162" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="144"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="46" t="s">
         <v>217</v>
       </c>
@@ -9453,7 +9453,7 @@
       <c r="K7" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="144"/>
+      <c r="L7" s="162"/>
     </row>
     <row r="8" spans="1:12" s="52" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
@@ -12570,41 +12570,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
       <c r="D3" s="42"/>
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
@@ -12630,65 +12630,65 @@
       <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="153" t="s">
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="174" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="155"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="176"/>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="172" t="s">
         <v>212</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="151" t="s">
+      <c r="H6" s="166" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="152"/>
-      <c r="J6" s="151" t="s">
+      <c r="I6" s="167"/>
+      <c r="J6" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="152"/>
-      <c r="L6" s="144" t="s">
+      <c r="K6" s="167"/>
+      <c r="L6" s="162" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="144"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="162"/>
       <c r="H7" s="46" t="s">
         <v>217</v>
       </c>
@@ -12701,7 +12701,7 @@
       <c r="K7" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="144"/>
+      <c r="L7" s="162"/>
     </row>
     <row r="8" spans="1:12" s="60" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
@@ -14316,124 +14316,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665BC7C7-123A-4873-A208-C306997F5526}">
   <dimension ref="A7:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="158" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" style="158" customWidth="1"/>
-    <col min="3" max="3" width="21" style="158" customWidth="1"/>
-    <col min="4" max="16384" width="30.5703125" style="158"/>
+    <col min="1" max="1" width="6" style="137" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="137" customWidth="1"/>
+    <col min="3" max="3" width="21" style="137" customWidth="1"/>
+    <col min="4" max="16384" width="30.5703125" style="137"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="159">
+      <c r="C7" s="138">
         <f ca="1">TODAY()</f>
-        <v>45540</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
     </row>
     <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="180" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="162"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="163"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-    </row>
-    <row r="14" spans="1:3" s="167" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="164" t="s">
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+    </row>
+    <row r="14" spans="1:3" s="144" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="142" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="143" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="168"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-    </row>
-    <row r="16" spans="1:3" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="171">
+      <c r="A15" s="145"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="147"/>
+    </row>
+    <row r="16" spans="1:3" s="151" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="148">
         <v>1</v>
       </c>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="150">
         <v>2512279</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="171">
+    <row r="17" spans="1:8" s="151" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="148">
         <v>2</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="149" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="173">
+      <c r="C17" s="150">
         <v>1794085</v>
       </c>
-      <c r="D17" s="175" t="s">
+      <c r="D17" s="181" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-    </row>
-    <row r="18" spans="1:8" s="174" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="171">
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+    </row>
+    <row r="18" spans="1:8" s="151" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="148">
         <v>3</v>
       </c>
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="149" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="150">
         <v>324500</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="177"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="170"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="147"/>
     </row>
     <row r="20" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="179"/>
-      <c r="B20" s="180" t="s">
+      <c r="A20" s="154"/>
+      <c r="B20" s="155" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="156">
         <f>SUM(C16:C19)</f>
         <v>4630864</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="182"/>
+      <c r="A23" s="183"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="183"/>
+      <c r="D24" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="4">
